--- a/data/trans_orig/P1806_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>3523</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1069</v>
+        <v>1037</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9455</v>
+        <v>8698</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01104963203378267</v>
+        <v>0.01104963203378268</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003352014859525304</v>
+        <v>0.003253176481676863</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02965407161954364</v>
+        <v>0.02727888215564147</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>2434</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5439</v>
+        <v>5321</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007700514997385522</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002941940746254004</v>
+        <v>0.002935916780138805</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01721005822546381</v>
+        <v>0.01683527684467125</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -783,19 +783,19 @@
         <v>5957</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3051</v>
+        <v>2622</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12028</v>
+        <v>10937</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009382417972937401</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004805577705801776</v>
+        <v>0.004129830373312912</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0189438880770012</v>
+        <v>0.01722591530915375</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>315322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>309390</v>
+        <v>310147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317776</v>
+        <v>317808</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9889503679662172</v>
+        <v>0.9889503679662174</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9703459283804564</v>
+        <v>0.9727211178443586</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9966479851404748</v>
+        <v>0.996746823518323</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>533</v>
@@ -833,19 +833,19 @@
         <v>313627</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>310622</v>
+        <v>310740</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>315131</v>
+        <v>315133</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9922994850026143</v>
+        <v>0.9922994850026146</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9827899417745362</v>
+        <v>0.9831647231553287</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.997058059253746</v>
+        <v>0.9970640832198613</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>860</v>
@@ -854,19 +854,19 @@
         <v>628949</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>622878</v>
+        <v>623969</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>631855</v>
+        <v>632284</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9906175820270627</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9810561119229989</v>
+        <v>0.9827740846908464</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9951944222941983</v>
+        <v>0.9958701696266871</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>8908</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3609</v>
+        <v>4112</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16369</v>
+        <v>16065</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01678653838983286</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00680038680643831</v>
+        <v>0.007748158059732824</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03084738683125395</v>
+        <v>0.03027388273606281</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -979,19 +979,19 @@
         <v>24879</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17066</v>
+        <v>17648</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33761</v>
+        <v>34299</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04563260070080593</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0313012933057209</v>
+        <v>0.03236809036681951</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06192333461971251</v>
+        <v>0.06291006895994924</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -1000,19 +1000,19 @@
         <v>33787</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24553</v>
+        <v>24924</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47737</v>
+        <v>45678</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03140484675295239</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02282164831489826</v>
+        <v>0.02316695311062333</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04437124569189375</v>
+        <v>0.04245708895177534</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>521739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>514278</v>
+        <v>514582</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>527038</v>
+        <v>526535</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9832134616101671</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.969152613168746</v>
+        <v>0.9697261172639372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9931996131935618</v>
+        <v>0.9922518419402671</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>681</v>
@@ -1050,19 +1050,19 @@
         <v>520334</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>511452</v>
+        <v>510914</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>528147</v>
+        <v>527565</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9543673992991941</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9380766653802872</v>
+        <v>0.9370899310400509</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.968698706694279</v>
+        <v>0.9676319096331806</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1055</v>
@@ -1071,19 +1071,19 @@
         <v>1042073</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1028123</v>
+        <v>1030182</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1051307</v>
+        <v>1050936</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9685951532470477</v>
+        <v>0.9685951532470478</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9556287543081063</v>
+        <v>0.9575429110482248</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9771783516851018</v>
+        <v>0.9768330468893767</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>10604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6290</v>
+        <v>6238</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17270</v>
+        <v>17824</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03355850635148078</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01990516327069578</v>
+        <v>0.01973952504113067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05465464924248516</v>
+        <v>0.05640646917160546</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -1196,19 +1196,19 @@
         <v>33726</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25823</v>
+        <v>25687</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42316</v>
+        <v>43164</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09463448517533915</v>
+        <v>0.09463448517533912</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07245929931681548</v>
+        <v>0.07207711311140852</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1187371149275627</v>
+        <v>0.1211166871812902</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -1217,19 +1217,19 @@
         <v>44330</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34766</v>
+        <v>35531</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55344</v>
+        <v>56642</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06593083828198787</v>
+        <v>0.06593083828198784</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05170666210253987</v>
+        <v>0.05284458937062303</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08231170323340847</v>
+        <v>0.08424148647697165</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>305389</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>298723</v>
+        <v>298169</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>309703</v>
+        <v>309755</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9664414936485192</v>
+        <v>0.9664414936485191</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9453453507575148</v>
+        <v>0.9435935308283945</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9800948367293042</v>
+        <v>0.9802604749588695</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>479</v>
@@ -1267,19 +1267,19 @@
         <v>322655</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>314065</v>
+        <v>313217</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330558</v>
+        <v>330694</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9053655148246609</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8812628850724367</v>
+        <v>0.8788833128187097</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9275407006831842</v>
+        <v>0.9279228868885914</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>824</v>
@@ -1288,19 +1288,19 @@
         <v>628045</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>617031</v>
+        <v>615733</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>637609</v>
+        <v>636844</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9340691617180122</v>
+        <v>0.934069161718012</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9176882967665916</v>
+        <v>0.9157585135230285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.94829333789746</v>
+        <v>0.9471554106293771</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>10171</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5551</v>
+        <v>5315</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20105</v>
+        <v>20026</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02725791554351135</v>
+        <v>0.02725791554351134</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01487543074998211</v>
+        <v>0.01424294443594358</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05387953048324347</v>
+        <v>0.05366916756736444</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -1413,19 +1413,19 @@
         <v>23473</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17066</v>
+        <v>16996</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31563</v>
+        <v>31788</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05562753973729644</v>
+        <v>0.05562753973729645</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04044553866966857</v>
+        <v>0.04027943818206385</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07480155013353268</v>
+        <v>0.07533360830549127</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -1434,19 +1434,19 @@
         <v>33644</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25250</v>
+        <v>24920</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45871</v>
+        <v>44868</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04231361505144375</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03175676860064019</v>
+        <v>0.03134135192645247</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05769180608546243</v>
+        <v>0.05642976907021924</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>362974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>353040</v>
+        <v>353119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367594</v>
+        <v>367830</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9727420844564887</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9461204695167565</v>
+        <v>0.9463308324326353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9851245692500179</v>
+        <v>0.9857570555640565</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>554</v>
@@ -1484,19 +1484,19 @@
         <v>398488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>390398</v>
+        <v>390173</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>404895</v>
+        <v>404965</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9443724602627036</v>
+        <v>0.9443724602627037</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9251984498664673</v>
+        <v>0.9246663916945086</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9595544613303313</v>
+        <v>0.9597205618179362</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>833</v>
@@ -1505,19 +1505,19 @@
         <v>761463</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>749236</v>
+        <v>750239</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>769857</v>
+        <v>770187</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9576863849485562</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9423081939145372</v>
+        <v>0.9435702309297805</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9682432313993596</v>
+        <v>0.9686586480735472</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>4244</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8779</v>
+        <v>8521</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02063547303638626</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008880058355426098</v>
+        <v>0.008864792636054063</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04268812583091423</v>
+        <v>0.04143349562166184</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1630,19 +1630,19 @@
         <v>7779</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4978</v>
+        <v>4773</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11653</v>
+        <v>11781</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03423839342984492</v>
+        <v>0.03423839342984491</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02190894591742723</v>
+        <v>0.02100564902141408</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05128784187259045</v>
+        <v>0.05185172812958942</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1651,19 +1651,19 @@
         <v>12023</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8052</v>
+        <v>8050</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18148</v>
+        <v>17756</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02777552938941522</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01860202692624679</v>
+        <v>0.01859563170959686</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04192329334022408</v>
+        <v>0.04101818858816931</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>201421</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196886</v>
+        <v>197144</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203839</v>
+        <v>203842</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9793645269636136</v>
+        <v>0.9793645269636138</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9573118741690859</v>
+        <v>0.9585665043783381</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9911199416445738</v>
+        <v>0.9911352073639461</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>473</v>
@@ -1701,19 +1701,19 @@
         <v>219436</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>215562</v>
+        <v>215434</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>222237</v>
+        <v>222442</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9657616065701551</v>
+        <v>0.965761606570155</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9487121581274096</v>
+        <v>0.9481482718704107</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9780910540825729</v>
+        <v>0.9789943509785861</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>745</v>
@@ -1722,19 +1722,19 @@
         <v>420856</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>414731</v>
+        <v>415123</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>424827</v>
+        <v>424829</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9722244706105849</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9580767066597751</v>
+        <v>0.9589818114118301</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9813979730737531</v>
+        <v>0.9814043682904031</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>8149</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4212</v>
+        <v>4086</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15327</v>
+        <v>15365</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03010165652888809</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01556036794864181</v>
+        <v>0.01509305551120041</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05661663271870277</v>
+        <v>0.05675729800430921</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -1847,19 +1847,19 @@
         <v>14537</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9722</v>
+        <v>9658</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21688</v>
+        <v>22207</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05511703488043248</v>
+        <v>0.05511703488043246</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03685979419361907</v>
+        <v>0.0366194552792399</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08222929165460946</v>
+        <v>0.08419776480541409</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -1868,19 +1868,19 @@
         <v>22686</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15454</v>
+        <v>16112</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31903</v>
+        <v>32164</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04244654114040428</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02891620478556627</v>
+        <v>0.03014585408064796</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05969293365616277</v>
+        <v>0.06017977685746227</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>262558</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255380</v>
+        <v>255342</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266495</v>
+        <v>266621</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.969898343471112</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9433833672812973</v>
+        <v>0.9432427019956903</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9844396320513582</v>
+        <v>0.9849069444887996</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>432</v>
@@ -1918,19 +1918,19 @@
         <v>249213</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>242062</v>
+        <v>241543</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>254028</v>
+        <v>254092</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9448829651195677</v>
+        <v>0.9448829651195673</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9177707083453898</v>
+        <v>0.915802235194586</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9631402058063806</v>
+        <v>0.9633805447207602</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>791</v>
@@ -1939,19 +1939,19 @@
         <v>511771</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>502554</v>
+        <v>502293</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>519003</v>
+        <v>518345</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9575534588595958</v>
+        <v>0.9575534588595956</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9403070663438373</v>
+        <v>0.9398202231425377</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9710837952144339</v>
+        <v>0.9698541459193519</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>29745</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19160</v>
+        <v>19464</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44174</v>
+        <v>45346</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04133067768602307</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02662239220392375</v>
+        <v>0.02704489732847833</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06137905029830818</v>
+        <v>0.06300754691195865</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>91</v>
@@ -2064,19 +2064,19 @@
         <v>70466</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57815</v>
+        <v>57093</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>88814</v>
+        <v>86653</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09126990886159221</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07488440508010541</v>
+        <v>0.0739485755295838</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1150360091421104</v>
+        <v>0.1122366964317778</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>117</v>
@@ -2085,19 +2085,19 @@
         <v>100211</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84564</v>
+        <v>84018</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>124118</v>
+        <v>121522</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06717688606740245</v>
+        <v>0.06717688606740246</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05668781571739324</v>
+        <v>0.05632230482338011</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08320341611916224</v>
+        <v>0.08146315441059862</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>689942</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>675513</v>
+        <v>674341</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>700527</v>
+        <v>700223</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9586693223139771</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9386209497016917</v>
+        <v>0.9369924530880414</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9733776077960764</v>
+        <v>0.9729551026715217</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>869</v>
@@ -2135,19 +2135,19 @@
         <v>701591</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>683243</v>
+        <v>685404</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>714242</v>
+        <v>714964</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9087300911384076</v>
+        <v>0.9087300911384077</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8849639908578893</v>
+        <v>0.8877633035682222</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9251155949198945</v>
+        <v>0.926051424470416</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1442</v>
@@ -2156,19 +2156,19 @@
         <v>1391533</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1367626</v>
+        <v>1370222</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1407180</v>
+        <v>1407726</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9328231139325973</v>
+        <v>0.9328231139325976</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.916796583880837</v>
+        <v>0.9185368455894015</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9433121842826069</v>
+        <v>0.9436776951766199</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>6598</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2905</v>
+        <v>2911</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13550</v>
+        <v>12734</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.008267073322785951</v>
+        <v>0.008267073322785952</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003639800538736559</v>
+        <v>0.003647351825579307</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01697795962483278</v>
+        <v>0.01595591692695282</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2281,19 +2281,19 @@
         <v>16843</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11000</v>
+        <v>11415</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24825</v>
+        <v>24881</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02026058663680531</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0132319777928434</v>
+        <v>0.01373082149249984</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0298615967720711</v>
+        <v>0.02992959478376923</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -2302,19 +2302,19 @@
         <v>23441</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16166</v>
+        <v>16075</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34648</v>
+        <v>33299</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01438623641140745</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009921124421903248</v>
+        <v>0.009865511329376046</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02126415442975772</v>
+        <v>0.02043601349385166</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>791474</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>784522</v>
+        <v>785338</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>795167</v>
+        <v>795161</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9917329266772139</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9830220403751675</v>
+        <v>0.9840440830730474</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9963601994612635</v>
+        <v>0.9963526481744207</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1038</v>
@@ -2352,19 +2352,19 @@
         <v>814488</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>806506</v>
+        <v>806450</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>820331</v>
+        <v>819916</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9797394133631948</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9701384032279285</v>
+        <v>0.9700704052162306</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9867680222071562</v>
+        <v>0.9862691785075</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1793</v>
@@ -2373,19 +2373,19 @@
         <v>1605962</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1594755</v>
+        <v>1596104</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1613237</v>
+        <v>1613328</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9856137635885924</v>
+        <v>0.9856137635885927</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9787358455702423</v>
+        <v>0.9795639865061484</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9900788755780967</v>
+        <v>0.9901344886706239</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>81942</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>65600</v>
+        <v>66926</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>103474</v>
+        <v>105838</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02319484778518329</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01856903795215043</v>
+        <v>0.01894426424268466</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0292897038849582</v>
+        <v>0.02995898268058116</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>303</v>
@@ -2498,19 +2498,19 @@
         <v>194137</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>172407</v>
+        <v>173227</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>219010</v>
+        <v>220013</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.05199221847083567</v>
+        <v>0.05199221847083566</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04617249604362527</v>
+        <v>0.04639207794337183</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05865328878514073</v>
+        <v>0.05892189605748137</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>395</v>
@@ -2519,19 +2519,19 @@
         <v>276079</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>247267</v>
+        <v>250251</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>305945</v>
+        <v>308184</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.03799221799210868</v>
+        <v>0.03799221799210869</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03402720425646199</v>
+        <v>0.03443789969783623</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0421021874034213</v>
+        <v>0.04241020317734015</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3450820</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3429288</v>
+        <v>3426924</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3467162</v>
+        <v>3465836</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9768051522148169</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.970710296115042</v>
+        <v>0.9700410173194188</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9814309620478499</v>
+        <v>0.9810557357573153</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5059</v>
@@ -2569,19 +2569,19 @@
         <v>3539833</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3514960</v>
+        <v>3513957</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3561563</v>
+        <v>3560743</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9480077815291643</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9413467112148594</v>
+        <v>0.9410781039425188</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9538275039563745</v>
+        <v>0.9536079220566283</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8343</v>
@@ -2590,19 +2590,19 @@
         <v>6990653</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6960787</v>
+        <v>6958548</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7019465</v>
+        <v>7016481</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9620077820078914</v>
+        <v>0.9620077820078915</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9578978125965794</v>
+        <v>0.9575897968226601</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9659727957435389</v>
+        <v>0.9655621003021638</v>
       </c>
     </row>
     <row r="30">
